--- a/biology/Zoologie/Buthus_ajax/Buthus_ajax.xlsx
+++ b/biology/Zoologie/Buthus_ajax/Buthus_ajax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthus ajax est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Espagne[1]. Elle se rencontre en Castille-La Manche dans les provinces de Tolède et de Ciudad Real et en Andalousie dans la province de Cordoue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Espagne. Elle se rencontre en Castille-La Manche dans les provinces de Tolède et de Ciudad Real et en Andalousie dans la province de Cordoue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 70 à 79 mm et les femelles de 75 à 91 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 70 à 79 mm et les femelles de 75 à 91 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus ajax par C. L. Koch en 1839. Elle est placée en synonymie avec Buthus occitanus par Simon en 1879[2]. Elle est relevée de synonymie par Teruel et Turiel en 2021[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus ajax par C. L. Koch en 1839. Elle est placée en synonymie avec Buthus occitanus par Simon en 1879. Elle est relevée de synonymie par Teruel et Turiel en 2021.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée  en référence à Ajax.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>C. L. Koch, 1839 : Die Arachniden. Nurnberg, C.H. Zehsche Buchhandlung, vol. 5, no 1/6, p. 25-30 &amp; 125-158 (texte intégral).</t>
         </is>
